--- a/simulation_data/iterative_algorithm/i_error_level_7_percent_water_1.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_7_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.28070923815176</v>
+        <v>90.88178445042914</v>
       </c>
       <c r="D2" t="n">
-        <v>7.374993874335523</v>
+        <v>7.434075810322697</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.33452021162607</v>
+        <v>90.54515201833256</v>
       </c>
       <c r="D3" t="n">
-        <v>7.645585569522622</v>
+        <v>7.879379137404087</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.16540632215822</v>
+        <v>88.84535317722944</v>
       </c>
       <c r="D4" t="n">
-        <v>7.376911830489683</v>
+        <v>7.418972092254502</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.49510850727025</v>
+        <v>87.59933751952146</v>
       </c>
       <c r="D5" t="n">
-        <v>7.785182579354626</v>
+        <v>6.978085022901787</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.90817631355911</v>
+        <v>85.67581169140443</v>
       </c>
       <c r="D6" t="n">
-        <v>7.722828355636504</v>
+        <v>7.554909077852475</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.18118947852371</v>
+        <v>85.59478325232075</v>
       </c>
       <c r="D7" t="n">
-        <v>8.205185861886669</v>
+        <v>6.966575171520726</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.79055582938244</v>
+        <v>85.05293270109524</v>
       </c>
       <c r="D8" t="n">
-        <v>8.160669504956772</v>
+        <v>6.511312918616477</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.04155464267551</v>
+        <v>82.68959700644966</v>
       </c>
       <c r="D9" t="n">
-        <v>7.318127335731836</v>
+        <v>6.861644910389508</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.41982062357398</v>
+        <v>81.38409502513048</v>
       </c>
       <c r="D10" t="n">
-        <v>8.507243279087342</v>
+        <v>6.473936324179202</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.50611960314933</v>
+        <v>80.05257709891247</v>
       </c>
       <c r="D11" t="n">
-        <v>8.518530210962483</v>
+        <v>7.166223380422539</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.65082870841097</v>
+        <v>79.20242342404225</v>
       </c>
       <c r="D12" t="n">
-        <v>7.796153471779943</v>
+        <v>8.075309479916013</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.2602459549577</v>
+        <v>79.27188244687255</v>
       </c>
       <c r="D13" t="n">
-        <v>8.078773342114227</v>
+        <v>5.672994012403881</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.77063537638993</v>
+        <v>77.57168425915199</v>
       </c>
       <c r="D14" t="n">
-        <v>8.515783718985499</v>
+        <v>7.445172409663489</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.00136049849205</v>
+        <v>77.05082257630993</v>
       </c>
       <c r="D15" t="n">
-        <v>7.238749517514671</v>
+        <v>7.468744973190612</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.38162597258321</v>
+        <v>75.92446163442256</v>
       </c>
       <c r="D16" t="n">
-        <v>7.903001663338311</v>
+        <v>7.453977049544597</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>72.87275517343512</v>
+        <v>76.211544285014</v>
       </c>
       <c r="D17" t="n">
-        <v>8.296091939879526</v>
+        <v>7.287762072847443</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.48085665304154</v>
+        <v>73.60261452599471</v>
       </c>
       <c r="D18" t="n">
-        <v>8.226205809184261</v>
+        <v>7.564848920312706</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.00098381146501</v>
+        <v>72.69822182608988</v>
       </c>
       <c r="D19" t="n">
-        <v>8.832266318292346</v>
+        <v>7.892006151078459</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.49520749593903</v>
+        <v>72.28449695028964</v>
       </c>
       <c r="D20" t="n">
-        <v>7.022218734389723</v>
+        <v>7.237885034266729</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.46393316010015</v>
+        <v>71.58778528368684</v>
       </c>
       <c r="D21" t="n">
-        <v>7.808059076232811</v>
+        <v>7.075756481111226</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.24779600478679</v>
+        <v>67.73859952829216</v>
       </c>
       <c r="D22" t="n">
-        <v>7.626184777898506</v>
+        <v>7.807685931148163</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.56154212863589</v>
+        <v>69.01663147515671</v>
       </c>
       <c r="D23" t="n">
-        <v>8.308864122823232</v>
+        <v>7.214241856721488</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.00268587703225</v>
+        <v>67.48432033892347</v>
       </c>
       <c r="D24" t="n">
-        <v>7.723787659018979</v>
+        <v>7.347450027345984</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.99143866956734</v>
+        <v>68.45556232196851</v>
       </c>
       <c r="D25" t="n">
-        <v>7.345468260943997</v>
+        <v>7.815569488768057</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.70865370968195</v>
+        <v>66.44719400121427</v>
       </c>
       <c r="D26" t="n">
-        <v>8.471710594712764</v>
+        <v>7.065246677432802</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.27200944847844</v>
+        <v>65.27957608964779</v>
       </c>
       <c r="D27" t="n">
-        <v>8.801553940905794</v>
+        <v>7.160933631185589</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.05974649100986</v>
+        <v>63.87961685200791</v>
       </c>
       <c r="D28" t="n">
-        <v>8.001462025588603</v>
+        <v>7.683824654893809</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.6773816629251</v>
+        <v>62.13098372537124</v>
       </c>
       <c r="D29" t="n">
-        <v>7.535569324481211</v>
+        <v>7.890663675763256</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.83556077979355</v>
+        <v>61.31156456898165</v>
       </c>
       <c r="D30" t="n">
-        <v>6.961869691463853</v>
+        <v>7.913986416406063</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.51301532862276</v>
+        <v>61.71616357424401</v>
       </c>
       <c r="D31" t="n">
-        <v>8.050215498541304</v>
+        <v>7.757142593084689</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.39589643760982</v>
+        <v>59.80260549576639</v>
       </c>
       <c r="D32" t="n">
-        <v>7.710312898636867</v>
+        <v>6.931280560870891</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>57.49446561933888</v>
+        <v>58.37083386634018</v>
       </c>
       <c r="D33" t="n">
-        <v>6.900219676134973</v>
+        <v>7.18847040981476</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.34617242289823</v>
+        <v>58.44513324725273</v>
       </c>
       <c r="D34" t="n">
-        <v>7.227876547885927</v>
+        <v>8.059532416431599</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.51275931971438</v>
+        <v>56.64692639441965</v>
       </c>
       <c r="D35" t="n">
-        <v>8.536825229109846</v>
+        <v>7.900451591834537</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.50388281056465</v>
+        <v>55.92683527307186</v>
       </c>
       <c r="D36" t="n">
-        <v>7.87571580334687</v>
+        <v>7.653305587246692</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.75515351270769</v>
+        <v>54.60890367988932</v>
       </c>
       <c r="D37" t="n">
-        <v>7.451349411959495</v>
+        <v>7.517012448946971</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.92799328491693</v>
+        <v>53.97377384594503</v>
       </c>
       <c r="D38" t="n">
-        <v>8.495883418076602</v>
+        <v>7.70557562399346</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.20900255821179</v>
+        <v>52.6043492221137</v>
       </c>
       <c r="D39" t="n">
-        <v>7.995946741970732</v>
+        <v>7.097850871767706</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.96002894705381</v>
+        <v>51.15185394070175</v>
       </c>
       <c r="D40" t="n">
-        <v>7.430286737185296</v>
+        <v>6.898506199121305</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.85000528179246</v>
+        <v>51.29293690041905</v>
       </c>
       <c r="D41" t="n">
-        <v>8.172129747738301</v>
+        <v>7.891048278673304</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.45535577974654</v>
+        <v>48.8418306364178</v>
       </c>
       <c r="D42" t="n">
-        <v>8.532801620870123</v>
+        <v>7.422392877300124</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.30153638459845</v>
+        <v>49.67348084679781</v>
       </c>
       <c r="D43" t="n">
-        <v>8.410375942468965</v>
+        <v>7.177552117192726</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.25378605872243</v>
+        <v>46.99785547670864</v>
       </c>
       <c r="D44" t="n">
-        <v>8.362529591307224</v>
+        <v>8.011181730756949</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.04193240247502</v>
+        <v>47.58518113072266</v>
       </c>
       <c r="D45" t="n">
-        <v>7.809867138122137</v>
+        <v>7.70949189877673</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.00903820136823</v>
+        <v>46.07348210029178</v>
       </c>
       <c r="D46" t="n">
-        <v>8.594962315827146</v>
+        <v>7.219896421137019</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.44755075370629</v>
+        <v>44.62913240939051</v>
       </c>
       <c r="D47" t="n">
-        <v>7.127928789152998</v>
+        <v>6.975842156461527</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.44216638374351</v>
+        <v>43.68686104389226</v>
       </c>
       <c r="D48" t="n">
-        <v>8.130677928538757</v>
+        <v>6.918339877329052</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.20566047156814</v>
+        <v>43.33930208532473</v>
       </c>
       <c r="D49" t="n">
-        <v>7.539093626912593</v>
+        <v>7.931994548541632</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.98407464555285</v>
+        <v>42.81834847440791</v>
       </c>
       <c r="D50" t="n">
-        <v>8.483180409087627</v>
+        <v>6.978765202903799</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.15912937970743</v>
+        <v>41.24120392352662</v>
       </c>
       <c r="D51" t="n">
-        <v>7.951347005934426</v>
+        <v>7.356757428798921</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.64344341323648</v>
+        <v>40.29637529806164</v>
       </c>
       <c r="D52" t="n">
-        <v>7.206435006232629</v>
+        <v>7.714562145770115</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.18924889615544</v>
+        <v>40.19156418589514</v>
       </c>
       <c r="D53" t="n">
-        <v>7.933866107367056</v>
+        <v>7.354601908576964</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.93902716924302</v>
+        <v>36.30216259984328</v>
       </c>
       <c r="D54" t="n">
-        <v>8.434331282544596</v>
+        <v>7.927883558827581</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.90950920094727</v>
+        <v>37.86504226715829</v>
       </c>
       <c r="D55" t="n">
-        <v>8.344969348053285</v>
+        <v>7.58586765646398</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.06024602750188</v>
+        <v>34.69920014048606</v>
       </c>
       <c r="D56" t="n">
-        <v>7.797386363702069</v>
+        <v>7.21659487917409</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.73723658497533</v>
+        <v>34.81975905924182</v>
       </c>
       <c r="D57" t="n">
-        <v>7.896911089178663</v>
+        <v>8.000672244648269</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.51603343746485</v>
+        <v>34.83780847727464</v>
       </c>
       <c r="D58" t="n">
-        <v>7.134975372365495</v>
+        <v>7.028858588432089</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.42443022035118</v>
+        <v>32.03527802811102</v>
       </c>
       <c r="D59" t="n">
-        <v>7.601963043297269</v>
+        <v>6.948831061183808</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.0796844714385</v>
+        <v>30.85185702193598</v>
       </c>
       <c r="D60" t="n">
-        <v>8.362612688641253</v>
+        <v>8.44787829384517</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.6542196435185</v>
+        <v>32.40234144229709</v>
       </c>
       <c r="D61" t="n">
-        <v>6.9000719821919</v>
+        <v>7.967407569967975</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.39844513559671</v>
+        <v>30.07263161920247</v>
       </c>
       <c r="D62" t="n">
-        <v>7.601990287577787</v>
+        <v>8.534737217310029</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.34347715387556</v>
+        <v>29.09811412642167</v>
       </c>
       <c r="D63" t="n">
-        <v>7.915556395655598</v>
+        <v>7.507227888131894</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.00159982976304</v>
+        <v>25.83039913770986</v>
       </c>
       <c r="D64" t="n">
-        <v>7.989473117489882</v>
+        <v>7.361737731281077</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.18763265408306</v>
+        <v>26.54112086644128</v>
       </c>
       <c r="D65" t="n">
-        <v>8.096818702957709</v>
+        <v>7.196076747813761</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.9857044520705</v>
+        <v>25.4684235042918</v>
       </c>
       <c r="D66" t="n">
-        <v>7.303993179966208</v>
+        <v>7.750138386950321</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.90643056351637</v>
+        <v>25.56226651399997</v>
       </c>
       <c r="D67" t="n">
-        <v>8.726947465271129</v>
+        <v>7.66625062507767</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.5073794510018</v>
+        <v>23.75075565644258</v>
       </c>
       <c r="D68" t="n">
-        <v>7.582755091124463</v>
+        <v>8.746277129045296</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.67377480419517</v>
+        <v>22.33809771002826</v>
       </c>
       <c r="D69" t="n">
-        <v>6.853320926756941</v>
+        <v>7.332294032206847</v>
       </c>
     </row>
   </sheetData>
